--- a/COMPAGNIE_MEDITERRANEENNE_D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_-/13NV2024.xlsx
+++ b/COMPAGNIE_MEDITERRANEENNE_D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_-/13NV2024.xlsx
@@ -1,60 +1,223 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="612" yWindow="588" windowWidth="21852" windowHeight="8676"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tableau_1_Page_37" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tableau_1_Page_37" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>CATEGORIES</t>
+  </si>
+  <si>
+    <t>INCENDIE</t>
+  </si>
+  <si>
+    <t>A.TRAVAIL</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>AUTOMOBILE</t>
+  </si>
+  <si>
+    <t>TRANSPORT</t>
+  </si>
+  <si>
+    <t>GROUPE</t>
+  </si>
+  <si>
+    <t>DOMMAGES AUX BIENS</t>
+  </si>
+  <si>
+    <t>RISQUES AGRICOLES</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>PERTE D'EXPLOITATION</t>
+  </si>
+  <si>
+    <t>CAUTION</t>
+  </si>
+  <si>
+    <t>ASSISTANCE</t>
+  </si>
+  <si>
+    <t>A.CORPOREL</t>
+  </si>
+  <si>
+    <t>ACCEPTATION</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>PRIMES EMISES</t>
+  </si>
+  <si>
+    <t>VARIATION DES PRIMES NON ACQUISES</t>
+  </si>
+  <si>
+    <t>PRESTATIONS ET FRAIS PAYES</t>
+  </si>
+  <si>
+    <t>CHARGES DES PROVISIONS POUR PRESTATIONS DIVERSE</t>
+  </si>
+  <si>
+    <t>SOLDE DE SOUSCRIPTION</t>
+  </si>
+  <si>
+    <t>FRAIS D'ACQUISITION</t>
+  </si>
+  <si>
+    <t>AUTRES CHARGES DE GESTION NETTES</t>
+  </si>
+  <si>
+    <t>CHARGES D'ACQUISITION ET DE GESTION NETTES</t>
+  </si>
+  <si>
+    <t>PRODUITS NETS DE PLACEMENTS</t>
+  </si>
+  <si>
+    <t>AUTRE PRODUITS TECHNIQUES</t>
+  </si>
+  <si>
+    <t>SOLDE FINANCIER</t>
+  </si>
+  <si>
+    <t>PART REASSUREURS DANS LES PRIMES ACQUISES</t>
+  </si>
+  <si>
+    <t>PART REASSUREURS DANS LES PRIMES NON ACQUISES</t>
+  </si>
+  <si>
+    <t>PART REASSUREURS DANS LES PRESTATIONS PAYEES</t>
+  </si>
+  <si>
+    <t>PART REASSUREURS DANS LES CHARGES DE PROVISIONS</t>
+  </si>
+  <si>
+    <t>COMMISSIONS REÇUES DES REASSUREURS</t>
+  </si>
+  <si>
+    <t>PART REASSUREURS DANS LA PARTICIPATION AUX RESULTATS</t>
+  </si>
+  <si>
+    <t>PART REASSUREURS DANS LES FRAIS REPORTES</t>
+  </si>
+  <si>
+    <t>SOLDE DE REASSURANCE</t>
+  </si>
+  <si>
+    <t>RESULTAT TECHNIQUE NON VIE</t>
+  </si>
+  <si>
+    <t>INFORMATIONS COMPLEMENTAIRES</t>
+  </si>
+  <si>
+    <t>PROVISIONS POUR PRIMES NON ACQUISES - ANNEE N</t>
+  </si>
+  <si>
+    <t>PROVISIONS POUR PRIMES NON ACQUISES - ANNEE N-1</t>
+  </si>
+  <si>
+    <t>PROVISIONS POUR SINSITRES A PAYER - ANNEE N</t>
+  </si>
+  <si>
+    <t>PROVISIONS POUR SINSITRES A PAYER - ANNEE N-1</t>
+  </si>
+  <si>
+    <t>PREVISIONS DE RECOURS A ENCAISSER - ANNEE N</t>
+  </si>
+  <si>
+    <t>PREVISIONS DE RECOURS A ENCAISSER - ANNEE N-1</t>
+  </si>
+  <si>
+    <t>PROVISIONS POUR PARTICIPATIONS AUX BENEFICES - ANNEE N</t>
+  </si>
+  <si>
+    <t>PROVISIONS POUR PARTICIPATIONS AUX BENEFICES - ANNEE N-1</t>
+  </si>
+  <si>
+    <t>PROVISIONS POUR EGALISATION ET EQUILIBRAGE - ANNEE N</t>
+  </si>
+  <si>
+    <t>PROVISIONS POUR EGALISATION ET EQUILIBRAGE - ANNEE N-1</t>
+  </si>
+  <si>
+    <t>PROVISIONS MATHEMATIQUES DE RENTE - ANNEE N</t>
+  </si>
+  <si>
+    <t>PROVISIONS MATHEMATIQUES DE RENTE - ANNEE N-1</t>
+  </si>
+  <si>
+    <t>PROVISIONS POUR RISQUES EN COURS - ANNEE N</t>
+  </si>
+  <si>
+    <t>PROVISIONS POUR RISQUES EN COURS - ANNEE N-1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000070C0"/>
-        <bgColor rgb="000070C0"/>
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0070C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
+        <fgColor rgb="FFFFA500"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000B050"/>
+        <fgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,105 +230,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -453,1653 +563,1544 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="58.5" customWidth="1" min="1" max="1"/>
-    <col width="12.5" customWidth="1" min="2" max="2"/>
-    <col width="14.5" customWidth="1" min="3" max="3"/>
-    <col width="11.5" customWidth="1" min="4" max="4"/>
-    <col width="15.5" customWidth="1" min="5" max="5"/>
-    <col width="14.5" customWidth="1" min="6" max="6"/>
-    <col width="11.5" customWidth="1" min="7" max="7"/>
-    <col width="26.5" customWidth="1" min="8" max="8"/>
-    <col width="24.5" customWidth="1" min="9" max="9"/>
-    <col width="18.5" customWidth="1" min="10" max="10"/>
-    <col width="29.5" customWidth="1" min="11" max="11"/>
-    <col width="11.5" customWidth="1" min="12" max="12"/>
-    <col width="15.5" customWidth="1" min="13" max="13"/>
-    <col width="15.5" customWidth="1" min="14" max="14"/>
-    <col width="16.5" customWidth="1" min="15" max="15"/>
-    <col width="12.5" customWidth="1" min="16" max="16"/>
-    <col width="13.5" customWidth="1" min="17" max="17"/>
+    <col min="1" max="1" width="58.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="14" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CATEGORIES</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>INCENDIE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>A.TRAVAIL</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>RC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>AUTOMOBILE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TRANSPORT</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>GROUPE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>DOMMAGES AUX BIENS</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RISQUES AGRICOLES</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CONSTRUCTION</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PERTE D'EXPLOITATION</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>CAUTION</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ASSISTANCE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>A.CORPOREL</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ACCEPTATION</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>PRIMES EMISES</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
         <v>30403034</v>
       </c>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="n">
-        <v>-8853040</v>
-      </c>
-      <c r="E2" s="3" t="n">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>8853040</v>
+      </c>
+      <c r="E2" s="3">
         <v>127116207</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>9670667</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>55516211</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>5028256</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>1325405</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="3">
         <v>2719780</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="3">
         <v>1935826</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="3">
         <v>112044</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="3">
         <v>10008601</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="3">
         <v>8261832</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="3">
         <v>1735375</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="3">
         <v>262686277</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="Q2" s="4">
         <v>17706079</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>VARIATION DES PRIMES NON ACQUISES</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
         <v>1016892</v>
       </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="n">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>-1083875</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>-391758</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>-242294</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3">
         <v>468659</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>198881</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="3">
         <v>-453940</v>
       </c>
-      <c r="K3" s="3" t="inlineStr"/>
-      <c r="L3" s="3" t="inlineStr"/>
-      <c r="M3" s="3" t="inlineStr"/>
-      <c r="N3" s="3" t="inlineStr"/>
-      <c r="O3" s="3" t="n">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
         <v>167047</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="3">
         <v>-320388</v>
       </c>
-      <c r="Q3" s="5" t="n">
+      <c r="Q3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>PRESTATIONS ET FRAIS PAYES</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
         <v>-18668065</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>-455438</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>-2133101</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>-81704129</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>745183</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>-44546780</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>-2027166</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>-293022</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="3">
         <v>-16137799</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>-131906</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>-67256</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="3">
         <v>-4026448</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="3">
         <v>-853882</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="3">
         <v>-3411247</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="3">
         <v>-173711056</v>
       </c>
-      <c r="Q4" s="5" t="n">
+      <c r="Q4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="21" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>CHARGES DES PROVISIONS POUR PRESTATIONS DIVERSE</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
+    <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3">
         <v>-7950360</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>52976</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>-15956583</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>-3335401</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>-4323009</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>-4538695</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>1415227</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>-235452</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="3">
         <v>18696486</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="3">
         <v>179400</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="3">
         <v>5000</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="3">
         <v>-335925</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="3">
         <v>-365752</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="3">
         <v>708386</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="3">
         <v>-15983703</v>
       </c>
-      <c r="Q5" s="5" t="n">
+      <c r="Q5" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>SOLDE DE SOUSCRIPTION</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
         <v>4801501</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>-402462</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>-9236644</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>40992802</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>5701083</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>6188441</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="3">
         <v>4884976</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3">
         <v>995812</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="3">
         <v>4824527</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="3">
         <v>1983320</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="3">
         <v>49787</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="3">
         <v>5646227</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="3">
         <v>7042198</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="3">
         <v>-800439</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="P6" s="3">
         <v>72671130</v>
       </c>
-      <c r="Q6" s="5" t="n">
+      <c r="Q6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>FRAIS D'ACQUISITION</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3">
         <v>-4616161</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>-66244</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>-1319554</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>-23729718</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>-3314913</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="3">
         <v>-4087603</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="3">
         <v>-1219364</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>-405426</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="3">
         <v>-1283348</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="3">
         <v>-347813</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="3">
         <v>-163954</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="3">
         <v>-1439260</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="3">
         <v>-1982895</v>
       </c>
-      <c r="O7" s="3" t="inlineStr"/>
-      <c r="P7" s="3" t="n">
+      <c r="O7" s="3"/>
+      <c r="P7" s="3">
         <v>-43976253</v>
       </c>
-      <c r="Q7" s="5" t="n">
+      <c r="Q7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>AUTRES CHARGES DE GESTION NETTES</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
         <v>-2092719</v>
       </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="n">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>-700666</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>-13933954</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>-1728355</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="3">
         <v>-2410300</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="3">
         <v>-712314</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>-212540</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="3">
         <v>-749717</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="3">
         <v>-203232</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="3">
         <v>-95783</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="3">
         <v>-840846</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="3">
         <v>-1158386</v>
       </c>
-      <c r="O8" s="3" t="inlineStr"/>
-      <c r="P8" s="3" t="n">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3">
         <v>-24838812</v>
       </c>
-      <c r="Q8" s="5" t="n">
+      <c r="Q8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>CHARGES D'ACQUISITION ET DE GESTION NETTES</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
         <v>-6708880</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>-66244</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="3">
         <v>-2020220</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>-37663671</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>-5043268</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="3">
         <v>-6497903</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3">
         <v>-1931678</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="3">
         <v>-617965</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="3">
         <v>-2033065</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="3">
         <v>-551045</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="3">
         <v>-259738</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="3">
         <v>-2280105</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="3">
         <v>-3141281</v>
       </c>
-      <c r="O9" s="3" t="inlineStr"/>
-      <c r="P9" s="3" t="n">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3">
         <v>-68815065</v>
       </c>
-      <c r="Q9" s="5" t="n">
+      <c r="Q9" s="5">
         <v>-2</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>PRODUITS NETS DE PLACEMENTS</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
         <v>7292866</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>657560</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="3">
         <v>5861589</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>30860520</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>1006539</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="3">
         <v>2107617</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="3">
         <v>657387</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="3">
         <v>1153225</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="3">
         <v>899778</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="3">
         <v>33011</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="3">
         <v>4285</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="3">
         <v>138333</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="3">
         <v>173444</v>
       </c>
-      <c r="O10" s="3" t="inlineStr"/>
-      <c r="P10" s="3" t="n">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3">
         <v>50846154</v>
       </c>
-      <c r="Q10" s="5" t="n">
+      <c r="Q10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>AUTRE PRODUITS TECHNIQUES</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr"/>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
-      <c r="E11" s="3" t="n">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
         <v>121670</v>
       </c>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="inlineStr"/>
-      <c r="I11" s="3" t="inlineStr"/>
-      <c r="J11" s="3" t="inlineStr"/>
-      <c r="K11" s="3" t="inlineStr"/>
-      <c r="L11" s="3" t="inlineStr"/>
-      <c r="M11" s="3" t="inlineStr"/>
-      <c r="N11" s="3" t="inlineStr"/>
-      <c r="O11" s="3" t="inlineStr"/>
-      <c r="P11" s="3" t="n">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3">
         <v>121670</v>
       </c>
-      <c r="Q11" s="5" t="n">
+      <c r="Q11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>SOLDE FINANCIER</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3">
         <v>7292866</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>657560</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="3">
         <v>5861589</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>30982190</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>1006539</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="3">
         <v>2107617</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="3">
         <v>657387</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="3">
         <v>1153225</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" s="3">
         <v>899778</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="3">
         <v>33011</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="L12" s="3">
         <v>4285</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="M12" s="3">
         <v>138333</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="N12" s="3">
         <v>173444</v>
       </c>
-      <c r="O12" s="3" t="inlineStr"/>
-      <c r="P12" s="3" t="n">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3">
         <v>50967824</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="Q12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>PART REASSUREURS DANS LES PRIMES ACQUISES</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3">
         <v>-25621238</v>
       </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="n">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>-3538395</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>-1703972</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>-5499141</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="3">
         <v>-3499443</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="3">
         <v>-4258143</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="3">
         <v>-864166</v>
       </c>
-      <c r="J13" s="3" t="inlineStr"/>
-      <c r="K13" s="3" t="n">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
         <v>1642696</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="L13" s="3">
         <v>-95237</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="3">
         <v>-843648</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" s="3">
         <v>-11927</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="3">
         <v>-29500</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="3">
         <v>-50297181</v>
       </c>
-      <c r="Q13" s="4" t="n">
+      <c r="Q13" s="4">
         <v>-5975067</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>PART REASSUREURS DANS LES PRIMES NON ACQUISES</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3">
         <v>-908403</v>
       </c>
-      <c r="C14" s="3" t="inlineStr"/>
-      <c r="D14" s="3" t="n">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
         <v>-134814</v>
       </c>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="n">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
         <v>-74745</v>
       </c>
-      <c r="G14" s="3" t="inlineStr"/>
-      <c r="H14" s="3" t="n">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <v>-270064</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="3">
         <v>-14020</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="3">
         <v>974426</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="3">
         <v>286074</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L14" s="3">
         <v>254</v>
       </c>
-      <c r="M14" s="3" t="inlineStr"/>
-      <c r="N14" s="3" t="n">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
         <v>-33264</v>
       </c>
-      <c r="O14" s="3" t="inlineStr"/>
-      <c r="P14" s="3" t="n">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3">
         <v>95073</v>
       </c>
-      <c r="Q14" s="4" t="n">
+      <c r="Q14" s="4">
         <v>269629</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>PART REASSUREURS DANS LES PRESTATIONS PAYEES</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
         <v>15199479</v>
       </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="n">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
         <v>-20306</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="3">
         <v>475</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="3">
         <v>-3073234</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="3">
         <v>2732665</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="3">
         <v>1347364</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="3">
         <v>117953</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="J15" s="3">
         <v>15320855</v>
       </c>
-      <c r="K15" s="3" t="inlineStr"/>
-      <c r="L15" s="3" t="n">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
         <v>4335</v>
       </c>
-      <c r="M15" s="3" t="inlineStr"/>
-      <c r="N15" s="3" t="n">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3">
         <v>8336</v>
       </c>
-      <c r="O15" s="3" t="inlineStr"/>
-      <c r="P15" s="3" t="n">
+      <c r="O15" s="3"/>
+      <c r="P15" s="3">
         <v>31678535</v>
       </c>
-      <c r="Q15" s="4" t="n">
+      <c r="Q15" s="4">
         <v>40613</v>
       </c>
     </row>
-    <row r="16" ht="21" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>PART REASSUREURS DANS LES CHARGES DE PROVISIONS</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n">
+    <row r="16" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3">
         <v>4544298</v>
       </c>
-      <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="n">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>-15366426</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="3">
         <v>369622</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="3">
         <v>3591267</v>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="3">
         <v>-431112</v>
       </c>
-      <c r="H16" s="3" t="n">
+      <c r="H16" s="3">
         <v>-1182929</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="3">
         <v>142708</v>
       </c>
-      <c r="J16" s="3" t="n">
+      <c r="J16" s="3">
         <v>-18321992</v>
       </c>
-      <c r="K16" s="3" t="n">
+      <c r="K16" s="3">
         <v>5338</v>
       </c>
-      <c r="L16" s="3" t="n">
+      <c r="L16" s="3">
         <v>-4250</v>
       </c>
-      <c r="M16" s="3" t="inlineStr"/>
-      <c r="N16" s="3" t="n">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3">
         <v>2802</v>
       </c>
-      <c r="O16" s="3" t="n">
+      <c r="O16" s="3">
         <v>548991</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="P16" s="3">
         <v>4631168</v>
       </c>
-      <c r="Q16" s="4" t="n">
+      <c r="Q16" s="4">
         <v>30732851</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>COMMISSIONS REÇUES DES REASSUREURS</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="n">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
         <v>7073749</v>
       </c>
-      <c r="C17" s="3" t="inlineStr"/>
-      <c r="D17" s="3" t="n">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
         <v>-818980</v>
       </c>
-      <c r="E17" s="3" t="inlineStr"/>
-      <c r="F17" s="3" t="n">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
         <v>1304354</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="3">
         <v>858043</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="3">
         <v>1135817</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="3">
         <v>251070</v>
       </c>
-      <c r="J17" s="3" t="n">
+      <c r="J17" s="3">
         <v>533055</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="3">
         <v>536247</v>
       </c>
-      <c r="L17" s="3" t="n">
+      <c r="L17" s="3">
         <v>23697</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="M17" s="3">
         <v>83824</v>
       </c>
-      <c r="N17" s="3" t="n">
+      <c r="N17" s="3">
         <v>40975</v>
       </c>
-      <c r="O17" s="3" t="inlineStr"/>
-      <c r="P17" s="3" t="n">
+      <c r="O17" s="3"/>
+      <c r="P17" s="3">
         <v>12659812</v>
       </c>
-      <c r="Q17" s="4" t="n">
+      <c r="Q17" s="4">
         <v>1637961</v>
       </c>
     </row>
-    <row r="18" ht="21" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>PART REASSUREURS DANS LA PARTICIPATION AUX RESULTATS</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr"/>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
-      <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="n">
+    <row r="18" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
         <v>-721</v>
       </c>
-      <c r="G18" s="3" t="inlineStr"/>
-      <c r="H18" s="3" t="inlineStr"/>
-      <c r="I18" s="3" t="inlineStr"/>
-      <c r="J18" s="3" t="inlineStr"/>
-      <c r="K18" s="3" t="inlineStr"/>
-      <c r="L18" s="3" t="inlineStr"/>
-      <c r="M18" s="3" t="inlineStr"/>
-      <c r="N18" s="3" t="inlineStr"/>
-      <c r="O18" s="3" t="inlineStr"/>
-      <c r="P18" s="3" t="n">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3">
         <v>-721</v>
       </c>
-      <c r="Q18" s="5" t="n">
+      <c r="Q18" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>PART REASSUREURS DANS LES FRAIS REPORTES</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
         <v>-7334</v>
       </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="n">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
         <v>-15840</v>
       </c>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3" t="n">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
         <v>-3977</v>
       </c>
-      <c r="G19" s="3" t="inlineStr"/>
-      <c r="H19" s="3" t="n">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
         <v>503</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="3">
         <v>691</v>
       </c>
-      <c r="J19" s="3" t="n">
+      <c r="J19" s="3">
         <v>-186706</v>
       </c>
-      <c r="K19" s="3" t="n">
+      <c r="K19" s="3">
         <v>-78</v>
       </c>
-      <c r="L19" s="3" t="inlineStr"/>
-      <c r="M19" s="3" t="inlineStr"/>
-      <c r="N19" s="3" t="n">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3">
         <v>2538</v>
       </c>
-      <c r="O19" s="3" t="inlineStr"/>
-      <c r="P19" s="3" t="n">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3">
         <v>-210204</v>
       </c>
-      <c r="Q19" s="5" t="n">
+      <c r="Q19" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>SOLDE DE REASSURANCE</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3">
         <v>280551</v>
       </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="n">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
         <v>-12786291</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="3">
         <v>-1333875</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="3">
         <v>-3756197</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="3">
         <v>-339848</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="3">
         <v>-3227452</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="3">
         <v>-365764</v>
       </c>
-      <c r="J20" s="3" t="n">
+      <c r="J20" s="3">
         <v>-4370036</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K20" s="3">
         <v>-815114</v>
       </c>
-      <c r="L20" s="3" t="n">
+      <c r="L20" s="3">
         <v>-71201</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="M20" s="3">
         <v>-759824</v>
       </c>
-      <c r="N20" s="3" t="n">
+      <c r="N20" s="3">
         <v>9460</v>
       </c>
-      <c r="O20" s="3" t="n">
+      <c r="O20" s="3">
         <v>519491</v>
       </c>
-      <c r="P20" s="3" t="n">
+      <c r="P20" s="3">
         <v>-1443518</v>
       </c>
-      <c r="Q20" s="4" t="n">
+      <c r="Q20" s="4">
         <v>25572582</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>RESULTAT TECHNIQUE NON VIE</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3">
         <v>5666038</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="3">
         <v>188854</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="3">
         <v>7391016</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="3">
         <v>32977446</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="3">
         <v>-2091843</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="3">
         <v>1458307</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="3">
         <v>383233</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="3">
         <v>1165307</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J21" s="3">
         <v>-678797</v>
       </c>
-      <c r="K21" s="3" t="n">
+      <c r="K21" s="3">
         <v>650172</v>
       </c>
-      <c r="L21" s="3" t="n">
+      <c r="L21" s="3">
         <v>-276866</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="M21" s="3">
         <v>2744632</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="N21" s="3">
         <v>4083821</v>
       </c>
-      <c r="O21" s="3" t="n">
+      <c r="O21" s="3">
         <v>-280948</v>
       </c>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="3">
         <v>53380372</v>
       </c>
-      <c r="Q21" s="5" t="n">
+      <c r="Q21" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>INFORMATIONS COMPLEMENTAIRES</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr"/>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr"/>
-      <c r="G22" s="3" t="inlineStr"/>
-      <c r="H22" s="3" t="inlineStr"/>
-      <c r="I22" s="3" t="inlineStr"/>
-      <c r="J22" s="3" t="inlineStr"/>
-      <c r="K22" s="3" t="inlineStr"/>
-      <c r="L22" s="3" t="inlineStr"/>
-      <c r="M22" s="3" t="inlineStr"/>
-      <c r="N22" s="3" t="inlineStr"/>
-      <c r="O22" s="3" t="inlineStr"/>
-      <c r="P22" s="3" t="inlineStr"/>
-      <c r="Q22" s="3" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS POUR PRIMES NON ACQUISES - ANNEE N</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3">
         <v>6618191</v>
       </c>
-      <c r="C23" s="3" t="inlineStr"/>
-      <c r="D23" s="3" t="inlineStr"/>
-      <c r="E23" s="3" t="n">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
         <v>46870536</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="3">
         <v>1900000</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="3">
         <v>1269569</v>
       </c>
-      <c r="H23" s="3" t="inlineStr"/>
-      <c r="I23" s="3" t="n">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
         <v>11718025</v>
       </c>
-      <c r="J23" s="3" t="n">
+      <c r="J23" s="3">
         <v>4002801</v>
       </c>
-      <c r="K23" s="3" t="inlineStr"/>
-      <c r="L23" s="3" t="inlineStr"/>
-      <c r="M23" s="3" t="inlineStr"/>
-      <c r="N23" s="3" t="inlineStr"/>
-      <c r="O23" s="3" t="n">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3">
         <v>1680490</v>
       </c>
-      <c r="P23" s="3" t="n">
+      <c r="P23" s="3">
         <v>74059612</v>
       </c>
-      <c r="Q23" s="5" t="n">
+      <c r="Q23" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="21" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS POUR PRIMES NON ACQUISES - ANNEE N-1</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n">
+    <row r="24" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
         <v>7635082</v>
       </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
-      <c r="E24" s="3" t="n">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
         <v>45786662</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="3">
         <v>1508242</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="3">
         <v>1027274</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="3">
         <v>468659</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="3">
         <v>11916906</v>
       </c>
-      <c r="J24" s="3" t="n">
+      <c r="J24" s="3">
         <v>3548861</v>
       </c>
-      <c r="K24" s="3" t="inlineStr"/>
-      <c r="L24" s="3" t="inlineStr"/>
-      <c r="M24" s="3" t="inlineStr"/>
-      <c r="N24" s="3" t="inlineStr"/>
-      <c r="O24" s="3" t="n">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3">
         <v>1847537</v>
       </c>
-      <c r="P24" s="3" t="n">
+      <c r="P24" s="3">
         <v>73739223</v>
       </c>
-      <c r="Q24" s="5" t="n">
+      <c r="Q24" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS POUR SINSITRES A PAYER - ANNEE N</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="n">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3">
         <v>55923395</v>
       </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="n">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
         <v>-53696563</v>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" s="3">
         <v>296178894</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" s="3">
         <v>10574166</v>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="3">
         <v>7110183</v>
       </c>
-      <c r="H25" s="3" t="n">
+      <c r="H25" s="3">
         <v>6186655</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="3">
         <v>773806</v>
       </c>
-      <c r="J25" s="3" t="n">
+      <c r="J25" s="3">
         <v>4906400</v>
       </c>
-      <c r="K25" s="3" t="n">
+      <c r="K25" s="3">
         <v>354400</v>
       </c>
-      <c r="L25" s="3" t="n">
+      <c r="L25" s="3">
         <v>46000</v>
       </c>
-      <c r="M25" s="3" t="n">
+      <c r="M25" s="3">
         <v>1485122</v>
       </c>
-      <c r="N25" s="3" t="n">
+      <c r="N25" s="3">
         <v>1061260</v>
       </c>
-      <c r="O25" s="3" t="n">
+      <c r="O25" s="3">
         <v>9538716</v>
       </c>
-      <c r="P25" s="3" t="n">
+      <c r="P25" s="3">
         <v>447835561</v>
       </c>
-      <c r="Q25" s="4" t="n">
+      <c r="Q25" s="4">
         <v>107393127</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS POUR SINSITRES A PAYER - ANNEE N-1</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="n">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3">
         <v>48042038</v>
       </c>
-      <c r="C26" s="3" t="inlineStr"/>
-      <c r="D26" s="3" t="n">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
         <v>-39155202</v>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" s="3">
         <v>290986883</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="3">
         <v>8904465</v>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="3">
         <v>4706097</v>
       </c>
-      <c r="H26" s="3" t="n">
+      <c r="H26" s="3">
         <v>7501882</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="3">
         <v>538354</v>
       </c>
-      <c r="J26" s="3" t="n">
+      <c r="J26" s="3">
         <v>23602886</v>
       </c>
-      <c r="K26" s="3" t="n">
+      <c r="K26" s="3">
         <v>533800</v>
       </c>
-      <c r="L26" s="3" t="n">
+      <c r="L26" s="3">
         <v>51000</v>
       </c>
-      <c r="M26" s="3" t="n">
+      <c r="M26" s="3">
         <v>1149197</v>
       </c>
-      <c r="N26" s="3" t="n">
+      <c r="N26" s="3">
         <v>695508</v>
       </c>
-      <c r="O26" s="3" t="n">
+      <c r="O26" s="3">
         <v>10247102</v>
       </c>
-      <c r="P26" s="3" t="n">
+      <c r="P26" s="3">
         <v>436114414</v>
       </c>
-      <c r="Q26" s="4" t="n">
+      <c r="Q26" s="4">
         <v>78310404</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>PREVISIONS DE RECOURS A ENCAISSER - ANNEE N</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3">
         <v>-905561</v>
       </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="n">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>-30186563</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" s="3">
         <v>-3654681</v>
       </c>
-      <c r="G27" s="3" t="inlineStr"/>
-      <c r="H27" s="3" t="n">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
         <v>-484563</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="3">
         <v>-111000</v>
       </c>
-      <c r="J27" s="3" t="n">
+      <c r="J27" s="3">
         <v>-31000</v>
       </c>
-      <c r="K27" s="3" t="inlineStr"/>
-      <c r="L27" s="3" t="inlineStr"/>
-      <c r="M27" s="3" t="inlineStr"/>
-      <c r="N27" s="3" t="inlineStr"/>
-      <c r="O27" s="3" t="inlineStr"/>
-      <c r="P27" s="3" t="n">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3">
         <v>-35373368</v>
       </c>
-      <c r="Q27" s="5" t="n">
+      <c r="Q27" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>PREVISIONS DE RECOURS A ENCAISSER - ANNEE N-1</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3">
         <v>-793290</v>
       </c>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr"/>
-      <c r="E28" s="3" t="n">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
         <v>-30131645</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" s="3">
         <v>-6436141</v>
       </c>
-      <c r="G28" s="3" t="inlineStr"/>
-      <c r="H28" s="3" t="n">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
         <v>-384563</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="3">
         <v>-111000</v>
       </c>
-      <c r="J28" s="3" t="n">
+      <c r="J28" s="3">
         <v>-31000</v>
       </c>
-      <c r="K28" s="3" t="inlineStr"/>
-      <c r="L28" s="3" t="inlineStr"/>
-      <c r="M28" s="3" t="inlineStr"/>
-      <c r="N28" s="3" t="inlineStr"/>
-      <c r="O28" s="3" t="inlineStr"/>
-      <c r="P28" s="3" t="n">
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3">
         <v>-37887639</v>
       </c>
-      <c r="Q28" s="5" t="n">
+      <c r="Q28" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="21" customHeight="1">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS POUR PARTICIPATIONS AUX BENEFICES - ANNEE N</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n">
+    <row r="29" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3">
         <v>1181580</v>
       </c>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="n">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
         <v>-970820</v>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" s="3">
         <v>10785481</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="3">
         <v>859999</v>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="3">
         <v>2128583</v>
       </c>
-      <c r="H29" s="3" t="inlineStr"/>
-      <c r="I29" s="3" t="inlineStr"/>
-      <c r="J29" s="3" t="inlineStr"/>
-      <c r="K29" s="3" t="inlineStr"/>
-      <c r="L29" s="3" t="inlineStr"/>
-      <c r="M29" s="3" t="inlineStr"/>
-      <c r="N29" s="3" t="inlineStr"/>
-      <c r="O29" s="3" t="inlineStr"/>
-      <c r="P29" s="3" t="n">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3">
         <v>15926463</v>
       </c>
-      <c r="Q29" s="4" t="n">
+      <c r="Q29" s="4">
         <v>1941640</v>
       </c>
     </row>
-    <row r="30" ht="21" customHeight="1">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS POUR PARTICIPATIONS AUX BENEFICES - ANNEE N-1</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="n">
+    <row r="30" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3">
         <v>1000307</v>
       </c>
-      <c r="C30" s="3" t="inlineStr"/>
-      <c r="D30" s="3" t="n">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
         <v>-409844</v>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" s="3">
         <v>9646564</v>
       </c>
-      <c r="F30" s="3" t="n">
+      <c r="F30" s="3">
         <v>988151</v>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="3">
         <v>1874811</v>
       </c>
-      <c r="H30" s="3" t="inlineStr"/>
-      <c r="I30" s="3" t="inlineStr"/>
-      <c r="J30" s="3" t="inlineStr"/>
-      <c r="K30" s="3" t="inlineStr"/>
-      <c r="L30" s="3" t="inlineStr"/>
-      <c r="M30" s="3" t="inlineStr"/>
-      <c r="N30" s="3" t="inlineStr"/>
-      <c r="O30" s="3" t="inlineStr"/>
-      <c r="P30" s="3" t="n">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3">
         <v>13919676</v>
       </c>
-      <c r="Q30" s="4" t="n">
+      <c r="Q30" s="4">
         <v>819687</v>
       </c>
     </row>
-    <row r="31" ht="21" customHeight="1">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS POUR EGALISATION ET EQUILIBRAGE - ANNEE N</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="n">
+    <row r="31" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3">
         <v>8322701</v>
       </c>
-      <c r="C31" s="3" t="inlineStr"/>
-      <c r="D31" s="3" t="n">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
         <v>-7659855</v>
       </c>
-      <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="3" t="inlineStr"/>
-      <c r="G31" s="3" t="n">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3">
         <v>12049092</v>
       </c>
-      <c r="H31" s="3" t="inlineStr"/>
-      <c r="I31" s="3" t="inlineStr"/>
-      <c r="J31" s="3" t="inlineStr"/>
-      <c r="K31" s="3" t="inlineStr"/>
-      <c r="L31" s="3" t="inlineStr"/>
-      <c r="M31" s="3" t="inlineStr"/>
-      <c r="N31" s="3" t="inlineStr"/>
-      <c r="O31" s="3" t="inlineStr"/>
-      <c r="P31" s="3" t="n">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3">
         <v>28031649</v>
       </c>
-      <c r="Q31" s="4" t="n">
+      <c r="Q31" s="4">
         <v>15319711</v>
       </c>
     </row>
-    <row r="32" ht="21" customHeight="1">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS POUR EGALISATION ET EQUILIBRAGE - ANNEE N-1</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="n">
+    <row r="32" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="3">
         <v>8322701</v>
       </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="n">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
         <v>-7407414</v>
       </c>
-      <c r="E32" s="3" t="inlineStr"/>
-      <c r="F32" s="3" t="inlineStr"/>
-      <c r="G32" s="3" t="n">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
         <v>10224352</v>
       </c>
-      <c r="H32" s="3" t="inlineStr"/>
-      <c r="I32" s="3" t="inlineStr"/>
-      <c r="J32" s="3" t="inlineStr"/>
-      <c r="K32" s="3" t="inlineStr"/>
-      <c r="L32" s="3" t="inlineStr"/>
-      <c r="M32" s="3" t="inlineStr"/>
-      <c r="N32" s="3" t="inlineStr"/>
-      <c r="O32" s="3" t="inlineStr"/>
-      <c r="P32" s="3" t="n">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3">
         <v>25954467</v>
       </c>
-      <c r="Q32" s="4" t="n">
+      <c r="Q32" s="4">
         <v>14814828</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS MATHEMATIQUES DE RENTE - ANNEE N</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr"/>
-      <c r="C33" s="3" t="n">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3">
         <v>7059454</v>
       </c>
-      <c r="D33" s="3" t="inlineStr"/>
-      <c r="E33" s="3" t="n">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
         <v>7665041</v>
       </c>
-      <c r="F33" s="3" t="inlineStr"/>
-      <c r="G33" s="3" t="inlineStr"/>
-      <c r="H33" s="3" t="inlineStr"/>
-      <c r="I33" s="3" t="inlineStr"/>
-      <c r="J33" s="3" t="inlineStr"/>
-      <c r="K33" s="3" t="inlineStr"/>
-      <c r="L33" s="3" t="inlineStr"/>
-      <c r="M33" s="3" t="inlineStr"/>
-      <c r="N33" s="3" t="inlineStr"/>
-      <c r="O33" s="3" t="inlineStr"/>
-      <c r="P33" s="3" t="n">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3">
         <v>14724495</v>
       </c>
-      <c r="Q33" s="5" t="n">
+      <c r="Q33" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS MATHEMATIQUES DE RENTE - ANNEE N-1</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr"/>
-      <c r="C34" s="3" t="n">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3">
         <v>7112430</v>
       </c>
-      <c r="D34" s="3" t="inlineStr"/>
-      <c r="E34" s="3" t="n">
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
         <v>7249987</v>
       </c>
-      <c r="F34" s="3" t="inlineStr"/>
-      <c r="G34" s="3" t="inlineStr"/>
-      <c r="H34" s="3" t="inlineStr"/>
-      <c r="I34" s="3" t="inlineStr"/>
-      <c r="J34" s="3" t="inlineStr"/>
-      <c r="K34" s="3" t="inlineStr"/>
-      <c r="L34" s="3" t="inlineStr"/>
-      <c r="M34" s="3" t="inlineStr"/>
-      <c r="N34" s="3" t="inlineStr"/>
-      <c r="O34" s="3" t="inlineStr"/>
-      <c r="P34" s="3" t="n">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3">
         <v>14362417</v>
       </c>
-      <c r="Q34" s="5" t="n">
+      <c r="Q34" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS POUR RISQUES EN COURS - ANNEE N</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="inlineStr"/>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="n">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
         <v>-601805</v>
       </c>
-      <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="3" t="inlineStr"/>
-      <c r="G35" s="3" t="n">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
         <v>69602</v>
       </c>
-      <c r="H35" s="3" t="inlineStr"/>
-      <c r="I35" s="3" t="inlineStr"/>
-      <c r="J35" s="3" t="inlineStr"/>
-      <c r="K35" s="3" t="inlineStr"/>
-      <c r="L35" s="3" t="inlineStr"/>
-      <c r="M35" s="3" t="inlineStr"/>
-      <c r="N35" s="3" t="inlineStr"/>
-      <c r="O35" s="3" t="inlineStr"/>
-      <c r="P35" s="3" t="n">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3">
         <v>671408</v>
       </c>
-      <c r="Q35" s="4" t="n">
+      <c r="Q35" s="4">
         <v>1203611</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>PROVISIONS POUR RISQUES EN COURS - ANNEE N-1</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr"/>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
-      <c r="E36" s="3" t="n">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
         <v>3355664</v>
       </c>
-      <c r="F36" s="3" t="inlineStr"/>
-      <c r="G36" s="3" t="n">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3">
         <v>13506</v>
       </c>
-      <c r="H36" s="3" t="inlineStr"/>
-      <c r="I36" s="3" t="inlineStr"/>
-      <c r="J36" s="3" t="inlineStr"/>
-      <c r="K36" s="3" t="inlineStr"/>
-      <c r="L36" s="3" t="inlineStr"/>
-      <c r="M36" s="3" t="inlineStr"/>
-      <c r="N36" s="3" t="inlineStr"/>
-      <c r="O36" s="3" t="inlineStr"/>
-      <c r="P36" s="3" t="n">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3">
         <v>3369170</v>
       </c>
-      <c r="Q36" s="5" t="n">
+      <c r="Q36" s="5">
         <v>0</v>
       </c>
     </row>
